--- a/biology/Botanique/Pamp/Pamp..xlsx
+++ b/biology/Botanique/Pamp/Pamp..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renato Pampanini, né à Valdobbiadene en 1875 et mort à Vittorio Veneto en 1949, est un botaniste, ptéridologue et mycologue italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a suivi ses études à l'université de Genève, puis à Lausanne et à Fribourg. Il a présenté sa thèse à l'université de Florence et devint professeur à l'athénée de Cagliari.
 En plus de ses propres recherches scientifiques, il accomplit de nombreuses expéditions botaniques, notamment en Cyrénaïque et dans d'autres régions de l'Afrique du Nord, à l'île de Rhodes et dans les îles du Dodécanèse.
@@ -544,7 +558,9 @@
           <t>Flora italica exsiccata</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet herbier fut le résultat d'un programme d'investigation floristique commencé en 1904 par Adriano Fiori, Renato Pampanini et Augusto Béguinot agissant pour le compte de la Société pour le changement d'exsiccata. Ils publient de 1905 à 1914 dans le Periodico botanico italiano des centaines d'articles concernant les plantes vasculaires italiennes critiques (par risque d'exctinction), rares ou importantes du point de vue de la floristique.
 </t>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Flora del Cadore, publication posthume, 1958
 1940, Il conte G. B. Samaritani (1821-1894) e le sue raccolte botaniche in Egitto ed in Oriente,  Nuovo giornale botanico italiano (Nuova serie). Florence. 47 (1): 199-219
@@ -586,10 +604,7 @@
 1911, Per la protezione della flora italiana : relazione presentata alla riunione generale della Società botanica italiana in Roma (12-16 ottobre 1911), Florence : Stabilimento Pellas
 1903a, Essai sur la géographie botanique des Alpes et en particulier des Alpes sud-orientales, Fribourg : Fragnière
 1903b, Erborizzazioni primaverili ed estive nel Veneto, Nuovo giornale botanico italiano (Nuova serie), Florence 10 (4)
-Chodat, RH; R Pampanini. 1902, Sur la distribution des plantes des alpes austro-orientales et plus particulièrement d'un choix de plantes des alpes cadoriques et vénitiennes, Le Globe, Genève, T. 41
-Livres
-1903, Essai sur la géographie botanique des Alpes et en particulier des Alpes sud-orientales, thèse. Ed. Impr. de Fragnière frères. 216 pp.
-1914, La flora del Caracorùm, Ed. N. Zanichelli. 290 pp</t>
+Chodat, RH; R Pampanini. 1902, Sur la distribution des plantes des alpes austro-orientales et plus particulièrement d'un choix de plantes des alpes cadoriques et vénitiennes, Le Globe, Genève, T. 41</t>
         </is>
       </c>
     </row>
@@ -614,10 +629,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1903, Essai sur la géographie botanique des Alpes et en particulier des Alpes sud-orientales, thèse. Ed. Impr. de Fragnière frères. 216 pp.
+1914, La flora del Caracorùm, Ed. N. Zanichelli. 290 pp</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pamp.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pamp.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(Asteraceae) Artemisia pampaninii Kitam. ex Vacc.
 (Caprifoliaceae) Lonicera pampaninii H.Lév. &amp; Hand.-Mazz.
